--- a/database.xlsx
+++ b/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="PARK" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="LIBRARY" sheetId="5" r:id="rId5"/>
     <sheet name="COLLEGE" sheetId="6" r:id="rId6"/>
     <sheet name="INDUSTRY" sheetId="7" r:id="rId7"/>
+    <sheet name="MALL" sheetId="8" r:id="rId8"/>
+    <sheet name="RESTAURANT" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="412">
   <si>
     <t>id</t>
   </si>
@@ -1047,22 +1049,233 @@
   </si>
   <si>
     <t>13id</t>
+  </si>
+  <si>
+    <t>MALL</t>
+  </si>
+  <si>
+    <t>Brisbane Arcade</t>
+  </si>
+  <si>
+    <t>Queen Street mall, Queen St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>(07) 3006 6290</t>
+  </si>
+  <si>
+    <t>qsm@brisbanemarketing.com.au</t>
+  </si>
+  <si>
+    <t>160 Queen St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>(07) 3231 9777</t>
+  </si>
+  <si>
+    <t>info@bne.mcgees.com.au</t>
+  </si>
+  <si>
+    <t>Indooroopilly Shopping Centre</t>
+  </si>
+  <si>
+    <t>322 Moggill Rd, Indooroopilly QLD 4068</t>
+  </si>
+  <si>
+    <t>(07) 3378 4022</t>
+  </si>
+  <si>
+    <t>info@indooroopillyshopping.com.au</t>
+  </si>
+  <si>
+    <t>Queen Street Mall</t>
+  </si>
+  <si>
+    <t>Sunnybank Plaza</t>
+  </si>
+  <si>
+    <t>Mains Rd &amp; McCullough St, Sunnybank QLD 4109</t>
+  </si>
+  <si>
+    <t>(07) 3345 7500</t>
+  </si>
+  <si>
+    <t>sunnybankplaza@retailfirst.com.au</t>
+  </si>
+  <si>
+    <t>Westfield Chermside</t>
+  </si>
+  <si>
+    <t>MacArthur Central Shopping Centre</t>
+  </si>
+  <si>
+    <t>Hamilton Rds | Cnr Gympie, Brisbane QLD 4032</t>
+  </si>
+  <si>
+    <t>255 Queen St, Brisbane QLD 4000</t>
+  </si>
+  <si>
+    <t>(07) 3007 2300</t>
+  </si>
+  <si>
+    <t>(07) 3117 5300</t>
+  </si>
+  <si>
+    <t>info@macarthurcentral.com</t>
+  </si>
+  <si>
+    <t>The Circuit, Brisbane Airport, 4008</t>
+  </si>
+  <si>
+    <t>(07) 3406 3000</t>
+  </si>
+  <si>
+    <t>DFO Brisbane</t>
+  </si>
+  <si>
+    <t>7md</t>
+  </si>
+  <si>
+    <t>Wintergarden, Brisbane</t>
+  </si>
+  <si>
+    <t>171-209 Queen St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>(07) 3229 9755</t>
+  </si>
+  <si>
+    <t>8md</t>
+  </si>
+  <si>
+    <t>RESTAURANTS</t>
+  </si>
+  <si>
+    <t>Miel Container </t>
+  </si>
+  <si>
+    <t>0423 466 503</t>
+  </si>
+  <si>
+    <t>466 George Street, Brisbane QLD 4000</t>
+  </si>
+  <si>
+    <t>96 Mary Street, Brisbane  QLD 4000</t>
+  </si>
+  <si>
+    <t>(07) 3238 5888</t>
+  </si>
+  <si>
+    <t>(07) 3252 4112</t>
+  </si>
+  <si>
+    <t>The Vietnamese</t>
+  </si>
+  <si>
+    <t>Guilty Rogue Public House</t>
+  </si>
+  <si>
+    <t>(07) 3255 9778</t>
+  </si>
+  <si>
+    <t>Cafe O-Mai</t>
+  </si>
+  <si>
+    <t>1rd</t>
+  </si>
+  <si>
+    <t>2rd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4rd</t>
+  </si>
+  <si>
+    <t>5rd</t>
+  </si>
+  <si>
+    <t>6rd</t>
+  </si>
+  <si>
+    <t>7rd</t>
+  </si>
+  <si>
+    <t>8rd</t>
+  </si>
+  <si>
+    <t>9rd</t>
+  </si>
+  <si>
+    <t>10rd</t>
+  </si>
+  <si>
+    <t>Double Shot New Farm</t>
+  </si>
+  <si>
+    <t>The Three Monkeys Coffee &amp; Teahouse</t>
+  </si>
+  <si>
+    <t>(07) 3358 6556</t>
+  </si>
+  <si>
+    <t>15 Cracknell Rd, Annerley QLD 4103</t>
+  </si>
+  <si>
+    <t>125 Oxlade Drive, New Farm QLD 4005</t>
+  </si>
+  <si>
+    <t>58 Mollison St, Brisbane QLD 4101</t>
+  </si>
+  <si>
+    <t>174 Wickham Street, Fortitude Valley QLD 4006</t>
+  </si>
+  <si>
+    <t>194 Wickham Street QLD 4000</t>
+  </si>
+  <si>
+    <t>(07) 3666 0755</t>
+  </si>
+  <si>
+    <t>Tara Thai</t>
+  </si>
+  <si>
+    <t>181 Mary Street, Brisbane QLD 4000</t>
+  </si>
+  <si>
+    <t>(07) 3229 2271</t>
+  </si>
+  <si>
+    <t>Urbane Restaurant</t>
+  </si>
+  <si>
+    <t>Gambaro</t>
+  </si>
+  <si>
+    <t>(07) 3369 9500</t>
+  </si>
+  <si>
+    <t>33 Caxton St, Petrie Terrace QLD 4000</t>
+  </si>
+  <si>
+    <t>85 Miskin St, Toowong QLD 4066</t>
+  </si>
+  <si>
+    <t>85 Miskin St</t>
+  </si>
+  <si>
+    <t>(07) 3371 4558</t>
+  </si>
+  <si>
+    <t>(07) 3844 6045</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1084,12 +1297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1104,13 +1311,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1118,6 +1318,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1141,19 +1354,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1437,230 +1648,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="31.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1674,110 +1887,105 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1795,21 +2003,21 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="5.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -1818,19 +2026,19 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1945,320 +2153,322 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2272,287 +2482,289 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="21.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2567,59 +2779,62 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="28.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2628,14 +2843,14 @@
       <c r="E3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>279</v>
       </c>
@@ -2651,21 +2866,21 @@
       <c r="E4" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>271</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2674,21 +2889,21 @@
       <c r="E5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>273</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2697,21 +2912,21 @@
       <c r="E6" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>276</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2720,26 +2935,26 @@
       <c r="E7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2752,221 +2967,578 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="31.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
